--- a/examples/neat/radix_examples/wind-farm-data-model-manual-edited.xlsx
+++ b/examples/neat/radix_examples/wind-farm-data-model-manual-edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.carvalho\GitHub\cognite-datamodeling\examples\neat\radix_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe\Documents\Radix\Horizontal - Demos\cognite-datamodeling\examples\neat\radix_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B1C8BC-5A15-4B7D-8B90-4FFCF786C242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50FAB92-C21C-41F2-901D-29DE119C6A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="_helper" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Properties!$A$2:$P$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Properties!$A$2:$P$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="357">
   <si>
     <t>role</t>
   </si>
@@ -311,9 +311,6 @@
     <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/activities</t>
   </si>
   <si>
-    <t>A list of assets the time series is related to.</t>
-  </si>
-  <si>
     <t>cdf_cdm:CogniteTimeSeries</t>
   </si>
   <si>
@@ -977,9 +974,6 @@
     <t>Plant daily production in tons</t>
   </si>
   <si>
-    <t>Plant daily target in tons</t>
-  </si>
-  <si>
     <t>Plant daily forecast in tons</t>
   </si>
   <si>
@@ -1035,6 +1029,90 @@
   </si>
   <si>
     <t>Radix OEE model made to demonstrate process of Core Data Model extension using OEE Demo</t>
+  </si>
+  <si>
+    <t>The assets the time series is related to.</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>assetType</t>
+  </si>
+  <si>
+    <t>Asset Type</t>
+  </si>
+  <si>
+    <t>assetExtenalId</t>
+  </si>
+  <si>
+    <t>Asset External Id</t>
+  </si>
+  <si>
+    <t>MonthlyLoss</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>RadixHorizontalDataPoints</t>
+  </si>
+  <si>
+    <t>Time Series</t>
+  </si>
+  <si>
+    <t>datapoints</t>
+  </si>
+  <si>
+    <t>Data Points</t>
+  </si>
+  <si>
+    <t>MTBF</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>lastFailure</t>
+  </si>
+  <si>
+    <t>MTTR</t>
+  </si>
+  <si>
+    <t>failureRate</t>
+  </si>
+  <si>
+    <t>probFailure</t>
+  </si>
+  <si>
+    <t>Last Failure</t>
+  </si>
+  <si>
+    <t>Failure Rate</t>
+  </si>
+  <si>
+    <t>Probability of Failure</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,8 +1163,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,6 +1190,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1148,7 +1244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1162,9 +1258,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1467,17 +1566,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,23 +1584,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1509,31 +1608,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1640,7 @@
         <v>45533.576350648153</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1549,15 +1648,15 @@
         <v>45533.576350648153</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1572,29 +1671,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
     <col min="13" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1713,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1664,9 +1763,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1681,7 +1780,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G3" s="6" t="b">
         <v>1</v>
@@ -1706,12 +1805,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1730,21 +1829,21 @@
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1759,7 +1858,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G5" s="6" t="b">
         <v>1</v>
@@ -1784,9 +1883,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>41</v>
@@ -1801,7 +1900,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G6" s="6" t="b">
         <v>1</v>
@@ -1826,9 +1925,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>45</v>
@@ -1843,7 +1942,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1860,9 +1959,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>50</v>
@@ -1877,7 +1976,7 @@
         <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1894,12 +1993,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1907,7 +2006,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G9" s="7" t="b">
         <v>1</v>
@@ -1920,19 +2019,19 @@
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>37</v>
@@ -1947,7 +2046,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1964,9 +2063,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>58</v>
@@ -1981,7 +2080,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="b">
         <v>1</v>
@@ -2006,9 +2105,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>64</v>
@@ -2023,7 +2122,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G12" s="7" t="b">
         <v>1</v>
@@ -2048,9 +2147,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>69</v>
@@ -2065,7 +2164,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="b">
         <v>1</v>
@@ -2090,9 +2189,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>41</v>
@@ -2104,10 +2203,10 @@
         <v>74</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -2124,22 +2223,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>301</v>
+        <v>287</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>300</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G15" s="7" t="b">
         <v>1</v>
@@ -2152,32 +2251,32 @@
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>302</v>
+        <v>287</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="b">
         <v>1</v>
@@ -2190,32 +2289,32 @@
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="b">
         <v>1</v>
@@ -2228,32 +2327,32 @@
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>307</v>
+        <v>287</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G18" s="7" t="b">
         <v>1</v>
@@ -2266,32 +2365,32 @@
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>308</v>
+        <v>287</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="b">
         <v>1</v>
@@ -2304,32 +2403,32 @@
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>309</v>
+        <v>287</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="b">
         <v>1</v>
@@ -2342,32 +2441,32 @@
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>321</v>
+        <v>287</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G21" s="7" t="b">
         <v>1</v>
@@ -2380,32 +2479,32 @@
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>322</v>
+        <v>287</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="b">
         <v>1</v>
@@ -2418,32 +2517,32 @@
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>323</v>
+        <v>287</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="b">
         <v>1</v>
@@ -2456,28 +2555,28 @@
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>319</v>
+        <v>287</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
@@ -2494,170 +2593,174 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="G28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="I28" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>350</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="G29" s="7" t="b">
         <v>1</v>
@@ -2670,30 +2773,30 @@
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>79</v>
+        <v>287</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C30" s="7"/>
+        <v>287</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>355</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="G30" s="7" t="b">
         <v>1</v>
@@ -2706,104 +2809,98 @@
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="G31" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="I31" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>353</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+        <v>263</v>
+      </c>
+      <c r="G32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="I32" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="K32" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="G33" s="6" t="b">
         <v>1</v>
@@ -2812,34 +2909,32 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>36</v>
+        <v>266</v>
       </c>
       <c r="G34" s="6" t="b">
         <v>1</v>
@@ -2852,313 +2947,873 @@
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="6" t="s">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G44" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" t="s">
+        <v>339</v>
+      </c>
+      <c r="C45" t="s">
+        <v>340</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>338</v>
+      </c>
+      <c r="L45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" t="s">
+        <v>342</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" t="s">
+        <v>331</v>
+      </c>
+      <c r="C47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="F48" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52" t="s">
         <v>269</v>
       </c>
-      <c r="B36" t="s">
+      <c r="F52" t="s">
         <v>270</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>268</v>
+      </c>
+      <c r="L52" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" t="s">
         <v>271</v>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>269</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="E53" t="s">
+        <v>272</v>
+      </c>
+      <c r="F53" t="s">
+        <v>273</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54" t="s">
+        <v>274</v>
+      </c>
+      <c r="E54" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" t="s">
+        <v>277</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" t="s">
+        <v>278</v>
+      </c>
+      <c r="F56" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>269</v>
-      </c>
-      <c r="B37" t="s">
-        <v>272</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
         <v>273</v>
       </c>
-      <c r="F37" t="s">
-        <v>274</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>269</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="L56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>273</v>
+      </c>
+      <c r="B57" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" t="s">
+        <v>268</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>273</v>
+      </c>
+      <c r="L57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>275</v>
       </c>
-      <c r="E38" t="s">
-        <v>273</v>
-      </c>
-      <c r="F38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>269</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B58" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>275</v>
+      </c>
+      <c r="L58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>275</v>
+      </c>
+      <c r="B59" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>268</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>275</v>
+      </c>
+      <c r="L59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>277</v>
       </c>
-      <c r="E39" t="s">
-        <v>273</v>
-      </c>
-      <c r="F39" t="s">
-        <v>278</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B60" t="s">
+        <v>281</v>
+      </c>
+      <c r="F60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>277</v>
+      </c>
+      <c r="L60" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" t="s">
         <v>279</v>
       </c>
-      <c r="F40" t="s">
-        <v>271</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>274</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="C61" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" t="s">
+        <v>268</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>277</v>
+      </c>
+      <c r="L61" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>274</v>
-      </c>
-      <c r="B41" t="s">
-        <v>280</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" t="s">
-        <v>269</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>274</v>
-      </c>
-      <c r="L41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>276</v>
-      </c>
-      <c r="B42" t="s">
-        <v>281</v>
-      </c>
-      <c r="F42" t="s">
-        <v>271</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
-        <v>276</v>
-      </c>
-      <c r="L42" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>276</v>
-      </c>
-      <c r="B43" t="s">
-        <v>280</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" t="s">
-        <v>269</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>276</v>
-      </c>
-      <c r="L43" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44" t="s">
-        <v>282</v>
-      </c>
-      <c r="F44" t="s">
-        <v>248</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>278</v>
-      </c>
-      <c r="L44" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>278</v>
-      </c>
-      <c r="B45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E45" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" t="s">
-        <v>269</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
-        <v>278</v>
-      </c>
-      <c r="L45" t="s">
-        <v>280</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:P45" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A2:P61" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3167,37 +3822,37 @@
           <x14:formula1>
             <xm:f>_helper!B$1:B$100</xm:f>
           </x14:formula1>
-          <xm:sqref>K25:K10012 K3:K14</xm:sqref>
+          <xm:sqref>K52:K10028 K32:K44 K3:K14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>_helper!A$1:A$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>F48 K45:K51 A3:A10028 K15:K31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>_helper!C$1:C$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>F49:F10028 F3:F47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>_helper!D$1:D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I25:I10012 I3:I14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>_helper!A$1:A$100</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A10012 K15:K24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>_helper!C$1:C$100</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F10012</xm:sqref>
+          <xm:sqref>I32:I10028 I3:I14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>_helper!D$1:D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G10012</xm:sqref>
+          <xm:sqref>G3:G10028</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>_helper!D$1:D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H10012 I15:I24</xm:sqref>
+          <xm:sqref>I15:I31 H3:H10028</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3207,26 +3862,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B3:B7"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="5" width="70" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="13" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="70" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3236,7 +3891,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -3247,13 +3902,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
@@ -3262,706 +3917,721 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
         <v>98</v>
       </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>100</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>102</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>297</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>105</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D14" t="s">
         <v>106</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>107</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D15" t="s">
         <v>109</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>110</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C16" t="s">
         <v>112</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D16" t="s">
         <v>113</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E16" t="s">
         <v>114</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
         <v>115</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C17" t="s">
         <v>117</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D17" t="s">
         <v>118</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E17" t="s">
         <v>119</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
         <v>120</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C18" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
         <v>123</v>
       </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
         <v>124</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C19" t="s">
         <v>126</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>127</v>
       </c>
-      <c r="D17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
         <v>130</v>
       </c>
-      <c r="D18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C21" t="s">
         <v>132</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
         <v>133</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C22" t="s">
         <v>135</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>136</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>99</v>
       </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" t="s">
         <v>142</v>
       </c>
-      <c r="D22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>104</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" t="s">
-        <v>190</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>205</v>
-      </c>
-      <c r="F41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
         <v>207</v>
       </c>
-      <c r="D42" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C45" t="s">
         <v>209</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
         <v>210</v>
       </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C46" t="s">
         <v>212</v>
       </c>
-      <c r="C44" t="s">
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
         <v>213</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3973,7 +4643,7 @@
           <x14:formula1>
             <xm:f>_helper!D$1:D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F104</xm:sqref>
+          <xm:sqref>F3:F106</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3983,23 +4653,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A7"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="13" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4007,7 +4677,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -4021,82 +4691,98 @@
         <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4125,29 +4811,29 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="51.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>16</v>
@@ -4159,208 +4845,208 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
         <v>221</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
         <v>222</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
         <v>223</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>224</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" t="s">
         <v>228</v>
       </c>
-      <c r="C7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>230</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
         <v>231</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
         <v>230</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" t="s">
         <v>232</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>239</v>
       </c>
-      <c r="B14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>239</v>
       </c>
-      <c r="B15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>239</v>
       </c>
-      <c r="B16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>242</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" t="s">
         <v>243</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4377,28 +5063,28 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="13" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>16</v>
@@ -4421,9 +5107,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>IF(ISBLANK(Views!A3), "", Views!A3)</f>
         <v>RadixHorizontalActivity</v>
@@ -4433,16 +5119,16 @@
         <v>RadixHorizontalActivity</v>
       </c>
       <c r="C1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>248</v>
       </c>
-      <c r="D1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(ISBLANK(Views!A4), "", Views!A4)</f>
         <v>RadixHorizontalAsset</v>
@@ -4452,16 +5138,16 @@
         <v>RadixHorizontalAsset</v>
       </c>
       <c r="C2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>250</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>IF(ISBLANK(Views!A5), "", Views!A5)</f>
         <v>Location</v>
@@ -4471,13 +5157,13 @@
         <v>Location</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF(ISBLANK(Views!A6), "", Views!A6)</f>
         <v>RadixHorizontalEquipment</v>
@@ -4487,10 +5173,10 @@
         <v>RadixHorizontalEquipment</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF(ISBLANK(Views!A7), "", Views!A7)</f>
         <v>RadixHorizontalTimeSeries</v>
@@ -4500,12 +5186,12 @@
         <v>RadixHorizontalTimeSeries</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>IF(ISBLANK(Views!A12), "", Views!A12)</f>
+        <f>IF(ISBLANK(Views!A14), "", Views!A14)</f>
         <v>cdf_cdm:Cognite360Image(version=v1)</v>
       </c>
       <c r="B6" t="str">
@@ -4516,9 +5202,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>IF(ISBLANK(Views!A13), "", Views!A13)</f>
+        <f>IF(ISBLANK(Views!A15), "", Views!A15)</f>
         <v>cdf_cdm:Cognite360ImageAnnotation(version=v1)</v>
       </c>
       <c r="B7" t="str">
@@ -4526,12 +5212,12 @@
         <v>WindTurbine</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>IF(ISBLANK(Views!A14), "", Views!A14)</f>
+        <f>IF(ISBLANK(Views!A16), "", Views!A16)</f>
         <v>cdf_cdm:Cognite360ImageCollection(version=v1)</v>
       </c>
       <c r="B8" t="str">
@@ -4539,12 +5225,12 @@
         <v>Substation</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>IF(ISBLANK(Views!A15), "", Views!A15)</f>
+        <f>IF(ISBLANK(Views!A17), "", Views!A17)</f>
         <v>cdf_cdm:Cognite360ImageModel(version=v1)</v>
       </c>
       <c r="B9" t="str">
@@ -4552,38 +5238,38 @@
         <v>MetMast</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>IF(ISBLANK(Views!A16), "", Views!A16)</f>
+        <f>IF(ISBLANK(Views!A18), "", Views!A18)</f>
         <v>cdf_cdm:Cognite360ImageStation(version=v1)</v>
       </c>
       <c r="B10" t="str">
         <f>IF(ISBLANK(Containers!A12), "", Containers!A12)</f>
-        <v/>
+        <v>MonthlyLoss</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>IF(ISBLANK(Views!A17), "", Views!A17)</f>
+        <f>IF(ISBLANK(Views!A19), "", Views!A19)</f>
         <v>cdf_cdm:Cognite3DModel(version=v1)</v>
       </c>
       <c r="B11" t="str">
         <f>IF(ISBLANK(Containers!A13), "", Containers!A13)</f>
-        <v/>
+        <v>RadixHorizontalDataPoints</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>IF(ISBLANK(Views!A18), "", Views!A18)</f>
+        <f>IF(ISBLANK(Views!A20), "", Views!A20)</f>
         <v>cdf_cdm:Cognite3DObject(version=v1)</v>
       </c>
       <c r="B12" t="str">
@@ -4591,12 +5277,12 @@
         <v/>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>IF(ISBLANK(Views!A19), "", Views!A19)</f>
+        <f>IF(ISBLANK(Views!A21), "", Views!A21)</f>
         <v>cdf_cdm:Cognite3DRevision(version=v1)</v>
       </c>
       <c r="B13" t="str">
@@ -4604,12 +5290,12 @@
         <v/>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>IF(ISBLANK(Views!A20), "", Views!A20)</f>
+        <f>IF(ISBLANK(Views!A22), "", Views!A22)</f>
         <v>cdf_cdm:Cognite3DTransformation(version=v1)</v>
       </c>
       <c r="B14" t="str">
@@ -4621,9 +5307,9 @@
         <v>RadixHorizontalActivity</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>IF(ISBLANK(Views!A21), "", Views!A21)</f>
+        <f>IF(ISBLANK(Views!A23), "", Views!A23)</f>
         <v>cdf_cdm:CogniteActivity(version=v1)</v>
       </c>
       <c r="B15" t="str">
@@ -4635,9 +5321,9 @@
         <v>RadixHorizontalAsset</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>IF(ISBLANK(Views!A22), "", Views!A22)</f>
+        <f>IF(ISBLANK(Views!A24), "", Views!A24)</f>
         <v>cdf_cdm:CogniteAnnotation(version=v1)</v>
       </c>
       <c r="B16" t="str">
@@ -4649,9 +5335,9 @@
         <v>Location</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>IF(ISBLANK(Views!A23), "", Views!A23)</f>
+        <f>IF(ISBLANK(Views!A25), "", Views!A25)</f>
         <v>cdf_cdm:CogniteAsset(version=v1)</v>
       </c>
       <c r="B17" t="str">
@@ -4663,9 +5349,9 @@
         <v>RadixHorizontalEquipment</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>IF(ISBLANK(Views!A24), "", Views!A24)</f>
+        <f>IF(ISBLANK(Views!A26), "", Views!A26)</f>
         <v>cdf_cdm:CogniteAssetClass(version=v1)</v>
       </c>
       <c r="B18" t="str">
@@ -4677,9 +5363,9 @@
         <v>RadixHorizontalTimeSeries</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>IF(ISBLANK(Views!A25), "", Views!A25)</f>
+        <f>IF(ISBLANK(Views!A27), "", Views!A27)</f>
         <v>cdf_cdm:CogniteAssetType(version=v1)</v>
       </c>
       <c r="B19" t="str">
@@ -4687,13 +5373,13 @@
         <v/>
       </c>
       <c r="C19" t="str">
-        <f>IF(ISBLANK(Views!A12), "", Views!A12)</f>
+        <f>IF(ISBLANK(Views!A14), "", Views!A14)</f>
         <v>cdf_cdm:Cognite360Image(version=v1)</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>IF(ISBLANK(Views!A26), "", Views!A26)</f>
+        <f>IF(ISBLANK(Views!A28), "", Views!A28)</f>
         <v>cdf_cdm:CogniteCADModel(version=v1)</v>
       </c>
       <c r="B20" t="str">
@@ -4701,13 +5387,13 @@
         <v/>
       </c>
       <c r="C20" t="str">
-        <f>IF(ISBLANK(Views!A13), "", Views!A13)</f>
+        <f>IF(ISBLANK(Views!A15), "", Views!A15)</f>
         <v>cdf_cdm:Cognite360ImageAnnotation(version=v1)</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>IF(ISBLANK(Views!A27), "", Views!A27)</f>
+        <f>IF(ISBLANK(Views!A29), "", Views!A29)</f>
         <v>cdf_cdm:CogniteCADNode(version=v1)</v>
       </c>
       <c r="B21" t="str">
@@ -4715,13 +5401,13 @@
         <v/>
       </c>
       <c r="C21" t="str">
-        <f>IF(ISBLANK(Views!A14), "", Views!A14)</f>
+        <f>IF(ISBLANK(Views!A16), "", Views!A16)</f>
         <v>cdf_cdm:Cognite360ImageCollection(version=v1)</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>IF(ISBLANK(Views!A28), "", Views!A28)</f>
+        <f>IF(ISBLANK(Views!A30), "", Views!A30)</f>
         <v>cdf_cdm:CogniteCADRevision(version=v1)</v>
       </c>
       <c r="B22" t="str">
@@ -4729,13 +5415,13 @@
         <v/>
       </c>
       <c r="C22" t="str">
-        <f>IF(ISBLANK(Views!A15), "", Views!A15)</f>
+        <f>IF(ISBLANK(Views!A17), "", Views!A17)</f>
         <v>cdf_cdm:Cognite360ImageModel(version=v1)</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>IF(ISBLANK(Views!A29), "", Views!A29)</f>
+        <f>IF(ISBLANK(Views!A31), "", Views!A31)</f>
         <v>cdf_cdm:CogniteCubeMap(version=v1)</v>
       </c>
       <c r="B23" t="str">
@@ -4743,13 +5429,13 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <f>IF(ISBLANK(Views!A16), "", Views!A16)</f>
+        <f>IF(ISBLANK(Views!A18), "", Views!A18)</f>
         <v>cdf_cdm:Cognite360ImageStation(version=v1)</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>IF(ISBLANK(Views!A30), "", Views!A30)</f>
+        <f>IF(ISBLANK(Views!A32), "", Views!A32)</f>
         <v>cdf_cdm:CogniteDescribable(version=v1)</v>
       </c>
       <c r="B24" t="str">
@@ -4757,13 +5443,13 @@
         <v/>
       </c>
       <c r="C24" t="str">
-        <f>IF(ISBLANK(Views!A17), "", Views!A17)</f>
+        <f>IF(ISBLANK(Views!A19), "", Views!A19)</f>
         <v>cdf_cdm:Cognite3DModel(version=v1)</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>IF(ISBLANK(Views!A31), "", Views!A31)</f>
+        <f>IF(ISBLANK(Views!A33), "", Views!A33)</f>
         <v>cdf_cdm:CogniteDiagramAnnotation(version=v1)</v>
       </c>
       <c r="B25" t="str">
@@ -4771,13 +5457,13 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <f>IF(ISBLANK(Views!A18), "", Views!A18)</f>
+        <f>IF(ISBLANK(Views!A20), "", Views!A20)</f>
         <v>cdf_cdm:Cognite3DObject(version=v1)</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>IF(ISBLANK(Views!A32), "", Views!A32)</f>
+        <f>IF(ISBLANK(Views!A34), "", Views!A34)</f>
         <v>cdf_cdm:CogniteEquipment(version=v1)</v>
       </c>
       <c r="B26" t="str">
@@ -4785,13 +5471,13 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <f>IF(ISBLANK(Views!A19), "", Views!A19)</f>
+        <f>IF(ISBLANK(Views!A21), "", Views!A21)</f>
         <v>cdf_cdm:Cognite3DRevision(version=v1)</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>IF(ISBLANK(Views!A33), "", Views!A33)</f>
+        <f>IF(ISBLANK(Views!A35), "", Views!A35)</f>
         <v>cdf_cdm:CogniteEquipmentType(version=v1)</v>
       </c>
       <c r="B27" t="str">
@@ -4799,13 +5485,13 @@
         <v/>
       </c>
       <c r="C27" t="str">
-        <f>IF(ISBLANK(Views!A20), "", Views!A20)</f>
+        <f>IF(ISBLANK(Views!A22), "", Views!A22)</f>
         <v>cdf_cdm:Cognite3DTransformation(version=v1)</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>IF(ISBLANK(Views!A34), "", Views!A34)</f>
+        <f>IF(ISBLANK(Views!A36), "", Views!A36)</f>
         <v>cdf_cdm:CogniteFile(version=v1)</v>
       </c>
       <c r="B28" t="str">
@@ -4813,13 +5499,13 @@
         <v/>
       </c>
       <c r="C28" t="str">
-        <f>IF(ISBLANK(Views!A21), "", Views!A21)</f>
+        <f>IF(ISBLANK(Views!A23), "", Views!A23)</f>
         <v>cdf_cdm:CogniteActivity(version=v1)</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>IF(ISBLANK(Views!A35), "", Views!A35)</f>
+        <f>IF(ISBLANK(Views!A37), "", Views!A37)</f>
         <v>cdf_cdm:CogniteFileCategory(version=v1)</v>
       </c>
       <c r="B29" t="str">
@@ -4827,13 +5513,13 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <f>IF(ISBLANK(Views!A22), "", Views!A22)</f>
+        <f>IF(ISBLANK(Views!A24), "", Views!A24)</f>
         <v>cdf_cdm:CogniteAnnotation(version=v1)</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>IF(ISBLANK(Views!A36), "", Views!A36)</f>
+        <f>IF(ISBLANK(Views!A38), "", Views!A38)</f>
         <v>cdf_cdm:CognitePointCloudModel(version=v1)</v>
       </c>
       <c r="B30" t="str">
@@ -4841,13 +5527,13 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <f>IF(ISBLANK(Views!A23), "", Views!A23)</f>
+        <f>IF(ISBLANK(Views!A25), "", Views!A25)</f>
         <v>cdf_cdm:CogniteAsset(version=v1)</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>IF(ISBLANK(Views!A37), "", Views!A37)</f>
+        <f>IF(ISBLANK(Views!A39), "", Views!A39)</f>
         <v>cdf_cdm:CognitePointCloudRevision(version=v1)</v>
       </c>
       <c r="B31" t="str">
@@ -4855,13 +5541,13 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <f>IF(ISBLANK(Views!A24), "", Views!A24)</f>
+        <f>IF(ISBLANK(Views!A26), "", Views!A26)</f>
         <v>cdf_cdm:CogniteAssetClass(version=v1)</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>IF(ISBLANK(Views!A38), "", Views!A38)</f>
+        <f>IF(ISBLANK(Views!A40), "", Views!A40)</f>
         <v>cdf_cdm:CognitePointCloudVolume(version=v1)</v>
       </c>
       <c r="B32" t="str">
@@ -4869,13 +5555,13 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <f>IF(ISBLANK(Views!A25), "", Views!A25)</f>
+        <f>IF(ISBLANK(Views!A27), "", Views!A27)</f>
         <v>cdf_cdm:CogniteAssetType(version=v1)</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>IF(ISBLANK(Views!A39), "", Views!A39)</f>
+        <f>IF(ISBLANK(Views!A41), "", Views!A41)</f>
         <v>cdf_cdm:CogniteSchedulable(version=v1)</v>
       </c>
       <c r="B33" t="str">
@@ -4883,13 +5569,13 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <f>IF(ISBLANK(Views!A26), "", Views!A26)</f>
+        <f>IF(ISBLANK(Views!A28), "", Views!A28)</f>
         <v>cdf_cdm:CogniteCADModel(version=v1)</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>IF(ISBLANK(Views!A40), "", Views!A40)</f>
+        <f>IF(ISBLANK(Views!A42), "", Views!A42)</f>
         <v>cdf_cdm:CogniteSourceSystem(version=v1)</v>
       </c>
       <c r="B34" t="str">
@@ -4897,13 +5583,13 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <f>IF(ISBLANK(Views!A27), "", Views!A27)</f>
+        <f>IF(ISBLANK(Views!A29), "", Views!A29)</f>
         <v>cdf_cdm:CogniteCADNode(version=v1)</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>IF(ISBLANK(Views!A41), "", Views!A41)</f>
+        <f>IF(ISBLANK(Views!A43), "", Views!A43)</f>
         <v>cdf_cdm:CogniteSourceable(version=v1)</v>
       </c>
       <c r="B35" t="str">
@@ -4911,13 +5597,13 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <f>IF(ISBLANK(Views!A28), "", Views!A28)</f>
+        <f>IF(ISBLANK(Views!A30), "", Views!A30)</f>
         <v>cdf_cdm:CogniteCADRevision(version=v1)</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>IF(ISBLANK(Views!A42), "", Views!A42)</f>
+        <f>IF(ISBLANK(Views!A44), "", Views!A44)</f>
         <v>cdf_cdm:CogniteTimeSeries(version=v1)</v>
       </c>
       <c r="B36" t="str">
@@ -4925,13 +5611,13 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <f>IF(ISBLANK(Views!A29), "", Views!A29)</f>
+        <f>IF(ISBLANK(Views!A31), "", Views!A31)</f>
         <v>cdf_cdm:CogniteCubeMap(version=v1)</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>IF(ISBLANK(Views!A43), "", Views!A43)</f>
+        <f>IF(ISBLANK(Views!A45), "", Views!A45)</f>
         <v>cdf_cdm:CogniteUnit(version=v1)</v>
       </c>
       <c r="B37" t="str">
@@ -4939,13 +5625,13 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <f>IF(ISBLANK(Views!A30), "", Views!A30)</f>
+        <f>IF(ISBLANK(Views!A32), "", Views!A32)</f>
         <v>cdf_cdm:CogniteDescribable(version=v1)</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>IF(ISBLANK(Views!A44), "", Views!A44)</f>
+        <f>IF(ISBLANK(Views!A46), "", Views!A46)</f>
         <v>cdf_cdm:CogniteVisualizable(version=v1)</v>
       </c>
       <c r="B38" t="str">
@@ -4953,13 +5639,13 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <f>IF(ISBLANK(Views!A31), "", Views!A31)</f>
+        <f>IF(ISBLANK(Views!A33), "", Views!A33)</f>
         <v>cdf_cdm:CogniteDiagramAnnotation(version=v1)</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>IF(ISBLANK(Views!A45), "", Views!A45)</f>
+        <f>IF(ISBLANK(Views!A47), "", Views!A47)</f>
         <v/>
       </c>
       <c r="B39" t="str">
@@ -4967,13 +5653,13 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <f>IF(ISBLANK(Views!A32), "", Views!A32)</f>
+        <f>IF(ISBLANK(Views!A34), "", Views!A34)</f>
         <v>cdf_cdm:CogniteEquipment(version=v1)</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>IF(ISBLANK(Views!A46), "", Views!A46)</f>
+        <f>IF(ISBLANK(Views!A48), "", Views!A48)</f>
         <v/>
       </c>
       <c r="B40" t="str">
@@ -4981,13 +5667,13 @@
         <v/>
       </c>
       <c r="C40" t="str">
-        <f>IF(ISBLANK(Views!A33), "", Views!A33)</f>
+        <f>IF(ISBLANK(Views!A35), "", Views!A35)</f>
         <v>cdf_cdm:CogniteEquipmentType(version=v1)</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>IF(ISBLANK(Views!A47), "", Views!A47)</f>
+        <f>IF(ISBLANK(Views!A49), "", Views!A49)</f>
         <v/>
       </c>
       <c r="B41" t="str">
@@ -4995,13 +5681,13 @@
         <v/>
       </c>
       <c r="C41" t="str">
-        <f>IF(ISBLANK(Views!A34), "", Views!A34)</f>
+        <f>IF(ISBLANK(Views!A36), "", Views!A36)</f>
         <v>cdf_cdm:CogniteFile(version=v1)</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>IF(ISBLANK(Views!A48), "", Views!A48)</f>
+        <f>IF(ISBLANK(Views!A50), "", Views!A50)</f>
         <v/>
       </c>
       <c r="B42" t="str">
@@ -5009,13 +5695,13 @@
         <v/>
       </c>
       <c r="C42" t="str">
-        <f>IF(ISBLANK(Views!A35), "", Views!A35)</f>
+        <f>IF(ISBLANK(Views!A37), "", Views!A37)</f>
         <v>cdf_cdm:CogniteFileCategory(version=v1)</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>IF(ISBLANK(Views!A49), "", Views!A49)</f>
+        <f>IF(ISBLANK(Views!A51), "", Views!A51)</f>
         <v/>
       </c>
       <c r="B43" t="str">
@@ -5023,13 +5709,13 @@
         <v/>
       </c>
       <c r="C43" t="str">
-        <f>IF(ISBLANK(Views!A36), "", Views!A36)</f>
+        <f>IF(ISBLANK(Views!A38), "", Views!A38)</f>
         <v>cdf_cdm:CognitePointCloudModel(version=v1)</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>IF(ISBLANK(Views!A50), "", Views!A50)</f>
+        <f>IF(ISBLANK(Views!A52), "", Views!A52)</f>
         <v/>
       </c>
       <c r="B44" t="str">
@@ -5037,13 +5723,13 @@
         <v/>
       </c>
       <c r="C44" t="str">
-        <f>IF(ISBLANK(Views!A37), "", Views!A37)</f>
+        <f>IF(ISBLANK(Views!A39), "", Views!A39)</f>
         <v>cdf_cdm:CognitePointCloudRevision(version=v1)</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>IF(ISBLANK(Views!A51), "", Views!A51)</f>
+        <f>IF(ISBLANK(Views!A53), "", Views!A53)</f>
         <v/>
       </c>
       <c r="B45" t="str">
@@ -5051,13 +5737,13 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <f>IF(ISBLANK(Views!A38), "", Views!A38)</f>
+        <f>IF(ISBLANK(Views!A40), "", Views!A40)</f>
         <v>cdf_cdm:CognitePointCloudVolume(version=v1)</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>IF(ISBLANK(Views!A52), "", Views!A52)</f>
+        <f>IF(ISBLANK(Views!A54), "", Views!A54)</f>
         <v/>
       </c>
       <c r="B46" t="str">
@@ -5065,13 +5751,13 @@
         <v/>
       </c>
       <c r="C46" t="str">
-        <f>IF(ISBLANK(Views!A39), "", Views!A39)</f>
+        <f>IF(ISBLANK(Views!A41), "", Views!A41)</f>
         <v>cdf_cdm:CogniteSchedulable(version=v1)</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>IF(ISBLANK(Views!A53), "", Views!A53)</f>
+        <f>IF(ISBLANK(Views!A55), "", Views!A55)</f>
         <v/>
       </c>
       <c r="B47" t="str">
@@ -5079,13 +5765,13 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <f>IF(ISBLANK(Views!A40), "", Views!A40)</f>
+        <f>IF(ISBLANK(Views!A42), "", Views!A42)</f>
         <v>cdf_cdm:CogniteSourceSystem(version=v1)</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>IF(ISBLANK(Views!A54), "", Views!A54)</f>
+        <f>IF(ISBLANK(Views!A56), "", Views!A56)</f>
         <v/>
       </c>
       <c r="B48" t="str">
@@ -5093,13 +5779,13 @@
         <v/>
       </c>
       <c r="C48" t="str">
-        <f>IF(ISBLANK(Views!A41), "", Views!A41)</f>
+        <f>IF(ISBLANK(Views!A43), "", Views!A43)</f>
         <v>cdf_cdm:CogniteSourceable(version=v1)</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>IF(ISBLANK(Views!A55), "", Views!A55)</f>
+        <f>IF(ISBLANK(Views!A57), "", Views!A57)</f>
         <v/>
       </c>
       <c r="B49" t="str">
@@ -5107,13 +5793,13 @@
         <v/>
       </c>
       <c r="C49" t="str">
-        <f>IF(ISBLANK(Views!A42), "", Views!A42)</f>
+        <f>IF(ISBLANK(Views!A44), "", Views!A44)</f>
         <v>cdf_cdm:CogniteTimeSeries(version=v1)</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>IF(ISBLANK(Views!A56), "", Views!A56)</f>
+        <f>IF(ISBLANK(Views!A58), "", Views!A58)</f>
         <v/>
       </c>
       <c r="B50" t="str">
@@ -5121,13 +5807,13 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <f>IF(ISBLANK(Views!A43), "", Views!A43)</f>
+        <f>IF(ISBLANK(Views!A45), "", Views!A45)</f>
         <v>cdf_cdm:CogniteUnit(version=v1)</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>IF(ISBLANK(Views!A57), "", Views!A57)</f>
+        <f>IF(ISBLANK(Views!A59), "", Views!A59)</f>
         <v/>
       </c>
       <c r="B51" t="str">
@@ -5135,13 +5821,13 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <f>IF(ISBLANK(Views!A44), "", Views!A44)</f>
+        <f>IF(ISBLANK(Views!A46), "", Views!A46)</f>
         <v>cdf_cdm:CogniteVisualizable(version=v1)</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>IF(ISBLANK(Views!A58), "", Views!A58)</f>
+        <f>IF(ISBLANK(Views!A60), "", Views!A60)</f>
         <v/>
       </c>
       <c r="B52" t="str">
@@ -5149,13 +5835,13 @@
         <v/>
       </c>
       <c r="C52" t="str">
-        <f>IF(ISBLANK(Views!A45), "", Views!A45)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A47), "", Views!A47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>IF(ISBLANK(Views!A59), "", Views!A59)</f>
+        <f>IF(ISBLANK(Views!A61), "", Views!A61)</f>
         <v/>
       </c>
       <c r="B53" t="str">
@@ -5163,13 +5849,13 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <f>IF(ISBLANK(Views!A46), "", Views!A46)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A48), "", Views!A48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>IF(ISBLANK(Views!A60), "", Views!A60)</f>
+        <f>IF(ISBLANK(Views!A62), "", Views!A62)</f>
         <v/>
       </c>
       <c r="B54" t="str">
@@ -5177,13 +5863,13 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <f>IF(ISBLANK(Views!A47), "", Views!A47)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A49), "", Views!A49)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>IF(ISBLANK(Views!A61), "", Views!A61)</f>
+        <f>IF(ISBLANK(Views!A63), "", Views!A63)</f>
         <v/>
       </c>
       <c r="B55" t="str">
@@ -5191,13 +5877,13 @@
         <v/>
       </c>
       <c r="C55" t="str">
-        <f>IF(ISBLANK(Views!A48), "", Views!A48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A50), "", Views!A50)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>IF(ISBLANK(Views!A62), "", Views!A62)</f>
+        <f>IF(ISBLANK(Views!A64), "", Views!A64)</f>
         <v/>
       </c>
       <c r="B56" t="str">
@@ -5205,13 +5891,13 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <f>IF(ISBLANK(Views!A49), "", Views!A49)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A51), "", Views!A51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>IF(ISBLANK(Views!A63), "", Views!A63)</f>
+        <f>IF(ISBLANK(Views!A65), "", Views!A65)</f>
         <v/>
       </c>
       <c r="B57" t="str">
@@ -5219,13 +5905,13 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <f>IF(ISBLANK(Views!A50), "", Views!A50)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A52), "", Views!A52)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>IF(ISBLANK(Views!A64), "", Views!A64)</f>
+        <f>IF(ISBLANK(Views!A66), "", Views!A66)</f>
         <v/>
       </c>
       <c r="B58" t="str">
@@ -5233,13 +5919,13 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <f>IF(ISBLANK(Views!A51), "", Views!A51)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A53), "", Views!A53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>IF(ISBLANK(Views!A65), "", Views!A65)</f>
+        <f>IF(ISBLANK(Views!A67), "", Views!A67)</f>
         <v/>
       </c>
       <c r="B59" t="str">
@@ -5247,13 +5933,13 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <f>IF(ISBLANK(Views!A52), "", Views!A52)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A54), "", Views!A54)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>IF(ISBLANK(Views!A66), "", Views!A66)</f>
+        <f>IF(ISBLANK(Views!A68), "", Views!A68)</f>
         <v/>
       </c>
       <c r="B60" t="str">
@@ -5261,13 +5947,13 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <f>IF(ISBLANK(Views!A53), "", Views!A53)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A55), "", Views!A55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>IF(ISBLANK(Views!A67), "", Views!A67)</f>
+        <f>IF(ISBLANK(Views!A69), "", Views!A69)</f>
         <v/>
       </c>
       <c r="B61" t="str">
@@ -5275,13 +5961,13 @@
         <v/>
       </c>
       <c r="C61" t="str">
-        <f>IF(ISBLANK(Views!A54), "", Views!A54)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A56), "", Views!A56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>IF(ISBLANK(Views!A68), "", Views!A68)</f>
+        <f>IF(ISBLANK(Views!A70), "", Views!A70)</f>
         <v/>
       </c>
       <c r="B62" t="str">
@@ -5289,13 +5975,13 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <f>IF(ISBLANK(Views!A55), "", Views!A55)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A57), "", Views!A57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>IF(ISBLANK(Views!A69), "", Views!A69)</f>
+        <f>IF(ISBLANK(Views!A71), "", Views!A71)</f>
         <v/>
       </c>
       <c r="B63" t="str">
@@ -5303,13 +5989,13 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <f>IF(ISBLANK(Views!A56), "", Views!A56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A58), "", Views!A58)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>IF(ISBLANK(Views!A70), "", Views!A70)</f>
+        <f>IF(ISBLANK(Views!A72), "", Views!A72)</f>
         <v/>
       </c>
       <c r="B64" t="str">
@@ -5317,13 +6003,13 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <f>IF(ISBLANK(Views!A57), "", Views!A57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A59), "", Views!A59)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>IF(ISBLANK(Views!A71), "", Views!A71)</f>
+        <f>IF(ISBLANK(Views!A73), "", Views!A73)</f>
         <v/>
       </c>
       <c r="B65" t="str">
@@ -5331,13 +6017,13 @@
         <v/>
       </c>
       <c r="C65" t="str">
-        <f>IF(ISBLANK(Views!A58), "", Views!A58)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A60), "", Views!A60)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>IF(ISBLANK(Views!A72), "", Views!A72)</f>
+        <f>IF(ISBLANK(Views!A74), "", Views!A74)</f>
         <v/>
       </c>
       <c r="B66" t="str">
@@ -5345,13 +6031,13 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <f>IF(ISBLANK(Views!A59), "", Views!A59)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A61), "", Views!A61)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>IF(ISBLANK(Views!A73), "", Views!A73)</f>
+        <f>IF(ISBLANK(Views!A75), "", Views!A75)</f>
         <v/>
       </c>
       <c r="B67" t="str">
@@ -5359,13 +6045,13 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <f>IF(ISBLANK(Views!A60), "", Views!A60)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A62), "", Views!A62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>IF(ISBLANK(Views!A74), "", Views!A74)</f>
+        <f>IF(ISBLANK(Views!A76), "", Views!A76)</f>
         <v/>
       </c>
       <c r="B68" t="str">
@@ -5373,13 +6059,13 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <f>IF(ISBLANK(Views!A61), "", Views!A61)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A63), "", Views!A63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>IF(ISBLANK(Views!A75), "", Views!A75)</f>
+        <f>IF(ISBLANK(Views!A77), "", Views!A77)</f>
         <v/>
       </c>
       <c r="B69" t="str">
@@ -5387,13 +6073,13 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <f>IF(ISBLANK(Views!A62), "", Views!A62)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A64), "", Views!A64)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>IF(ISBLANK(Views!A76), "", Views!A76)</f>
+        <f>IF(ISBLANK(Views!A78), "", Views!A78)</f>
         <v/>
       </c>
       <c r="B70" t="str">
@@ -5401,13 +6087,13 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <f>IF(ISBLANK(Views!A63), "", Views!A63)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A65), "", Views!A65)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>IF(ISBLANK(Views!A77), "", Views!A77)</f>
+        <f>IF(ISBLANK(Views!A79), "", Views!A79)</f>
         <v/>
       </c>
       <c r="B71" t="str">
@@ -5415,13 +6101,13 @@
         <v/>
       </c>
       <c r="C71" t="str">
-        <f>IF(ISBLANK(Views!A64), "", Views!A64)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A66), "", Views!A66)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>IF(ISBLANK(Views!A78), "", Views!A78)</f>
+        <f>IF(ISBLANK(Views!A80), "", Views!A80)</f>
         <v/>
       </c>
       <c r="B72" t="str">
@@ -5429,13 +6115,13 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <f>IF(ISBLANK(Views!A65), "", Views!A65)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A67), "", Views!A67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>IF(ISBLANK(Views!A79), "", Views!A79)</f>
+        <f>IF(ISBLANK(Views!A81), "", Views!A81)</f>
         <v/>
       </c>
       <c r="B73" t="str">
@@ -5443,13 +6129,13 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <f>IF(ISBLANK(Views!A66), "", Views!A66)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A68), "", Views!A68)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>IF(ISBLANK(Views!A80), "", Views!A80)</f>
+        <f>IF(ISBLANK(Views!A82), "", Views!A82)</f>
         <v/>
       </c>
       <c r="B74" t="str">
@@ -5457,13 +6143,13 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <f>IF(ISBLANK(Views!A67), "", Views!A67)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A69), "", Views!A69)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>IF(ISBLANK(Views!A81), "", Views!A81)</f>
+        <f>IF(ISBLANK(Views!A83), "", Views!A83)</f>
         <v/>
       </c>
       <c r="B75" t="str">
@@ -5471,13 +6157,13 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <f>IF(ISBLANK(Views!A68), "", Views!A68)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A70), "", Views!A70)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>IF(ISBLANK(Views!A82), "", Views!A82)</f>
+        <f>IF(ISBLANK(Views!A84), "", Views!A84)</f>
         <v/>
       </c>
       <c r="B76" t="str">
@@ -5485,13 +6171,13 @@
         <v/>
       </c>
       <c r="C76" t="str">
-        <f>IF(ISBLANK(Views!A69), "", Views!A69)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A71), "", Views!A71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>IF(ISBLANK(Views!A83), "", Views!A83)</f>
+        <f>IF(ISBLANK(Views!A85), "", Views!A85)</f>
         <v/>
       </c>
       <c r="B77" t="str">
@@ -5499,13 +6185,13 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <f>IF(ISBLANK(Views!A70), "", Views!A70)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A72), "", Views!A72)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>IF(ISBLANK(Views!A84), "", Views!A84)</f>
+        <f>IF(ISBLANK(Views!A86), "", Views!A86)</f>
         <v/>
       </c>
       <c r="B78" t="str">
@@ -5513,13 +6199,13 @@
         <v/>
       </c>
       <c r="C78" t="str">
-        <f>IF(ISBLANK(Views!A71), "", Views!A71)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A73), "", Views!A73)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>IF(ISBLANK(Views!A85), "", Views!A85)</f>
+        <f>IF(ISBLANK(Views!A87), "", Views!A87)</f>
         <v/>
       </c>
       <c r="B79" t="str">
@@ -5527,13 +6213,13 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <f>IF(ISBLANK(Views!A72), "", Views!A72)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A74), "", Views!A74)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>IF(ISBLANK(Views!A86), "", Views!A86)</f>
+        <f>IF(ISBLANK(Views!A88), "", Views!A88)</f>
         <v/>
       </c>
       <c r="B80" t="str">
@@ -5541,13 +6227,13 @@
         <v/>
       </c>
       <c r="C80" t="str">
-        <f>IF(ISBLANK(Views!A73), "", Views!A73)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A75), "", Views!A75)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>IF(ISBLANK(Views!A87), "", Views!A87)</f>
+        <f>IF(ISBLANK(Views!A89), "", Views!A89)</f>
         <v/>
       </c>
       <c r="B81" t="str">
@@ -5555,13 +6241,13 @@
         <v/>
       </c>
       <c r="C81" t="str">
-        <f>IF(ISBLANK(Views!A74), "", Views!A74)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A76), "", Views!A76)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>IF(ISBLANK(Views!A88), "", Views!A88)</f>
+        <f>IF(ISBLANK(Views!A90), "", Views!A90)</f>
         <v/>
       </c>
       <c r="B82" t="str">
@@ -5569,13 +6255,13 @@
         <v/>
       </c>
       <c r="C82" t="str">
-        <f>IF(ISBLANK(Views!A75), "", Views!A75)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A77), "", Views!A77)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>IF(ISBLANK(Views!A89), "", Views!A89)</f>
+        <f>IF(ISBLANK(Views!A91), "", Views!A91)</f>
         <v/>
       </c>
       <c r="B83" t="str">
@@ -5583,13 +6269,13 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <f>IF(ISBLANK(Views!A76), "", Views!A76)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A78), "", Views!A78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>IF(ISBLANK(Views!A90), "", Views!A90)</f>
+        <f>IF(ISBLANK(Views!A92), "", Views!A92)</f>
         <v/>
       </c>
       <c r="B84" t="str">
@@ -5597,13 +6283,13 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <f>IF(ISBLANK(Views!A77), "", Views!A77)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A79), "", Views!A79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>IF(ISBLANK(Views!A91), "", Views!A91)</f>
+        <f>IF(ISBLANK(Views!A93), "", Views!A93)</f>
         <v/>
       </c>
       <c r="B85" t="str">
@@ -5611,13 +6297,13 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <f>IF(ISBLANK(Views!A78), "", Views!A78)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A80), "", Views!A80)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>IF(ISBLANK(Views!A92), "", Views!A92)</f>
+        <f>IF(ISBLANK(Views!A94), "", Views!A94)</f>
         <v/>
       </c>
       <c r="B86" t="str">
@@ -5625,13 +6311,13 @@
         <v/>
       </c>
       <c r="C86" t="str">
-        <f>IF(ISBLANK(Views!A79), "", Views!A79)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A81), "", Views!A81)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>IF(ISBLANK(Views!A93), "", Views!A93)</f>
+        <f>IF(ISBLANK(Views!A95), "", Views!A95)</f>
         <v/>
       </c>
       <c r="B87" t="str">
@@ -5639,13 +6325,13 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <f>IF(ISBLANK(Views!A80), "", Views!A80)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A82), "", Views!A82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>IF(ISBLANK(Views!A94), "", Views!A94)</f>
+        <f>IF(ISBLANK(Views!A96), "", Views!A96)</f>
         <v/>
       </c>
       <c r="B88" t="str">
@@ -5653,13 +6339,13 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <f>IF(ISBLANK(Views!A81), "", Views!A81)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A83), "", Views!A83)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>IF(ISBLANK(Views!A95), "", Views!A95)</f>
+        <f>IF(ISBLANK(Views!A97), "", Views!A97)</f>
         <v/>
       </c>
       <c r="B89" t="str">
@@ -5667,13 +6353,13 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <f>IF(ISBLANK(Views!A82), "", Views!A82)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A84), "", Views!A84)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>IF(ISBLANK(Views!A96), "", Views!A96)</f>
+        <f>IF(ISBLANK(Views!A98), "", Views!A98)</f>
         <v/>
       </c>
       <c r="B90" t="str">
@@ -5681,13 +6367,13 @@
         <v/>
       </c>
       <c r="C90" t="str">
-        <f>IF(ISBLANK(Views!A83), "", Views!A83)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A85), "", Views!A85)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>IF(ISBLANK(Views!A97), "", Views!A97)</f>
+        <f>IF(ISBLANK(Views!A99), "", Views!A99)</f>
         <v/>
       </c>
       <c r="B91" t="str">
@@ -5695,13 +6381,13 @@
         <v/>
       </c>
       <c r="C91" t="str">
-        <f>IF(ISBLANK(Views!A84), "", Views!A84)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A86), "", Views!A86)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>IF(ISBLANK(Views!A98), "", Views!A98)</f>
+        <f>IF(ISBLANK(Views!A100), "", Views!A100)</f>
         <v/>
       </c>
       <c r="B92" t="str">
@@ -5709,13 +6395,13 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <f>IF(ISBLANK(Views!A85), "", Views!A85)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A87), "", Views!A87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>IF(ISBLANK(Views!A99), "", Views!A99)</f>
+        <f>IF(ISBLANK(Views!A101), "", Views!A101)</f>
         <v/>
       </c>
       <c r="B93" t="str">
@@ -5723,13 +6409,13 @@
         <v/>
       </c>
       <c r="C93" t="str">
-        <f>IF(ISBLANK(Views!A86), "", Views!A86)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A88), "", Views!A88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>IF(ISBLANK(Views!A100), "", Views!A100)</f>
+        <f>IF(ISBLANK(Views!A102), "", Views!A102)</f>
         <v/>
       </c>
       <c r="B94" t="str">
@@ -5737,13 +6423,13 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <f>IF(ISBLANK(Views!A87), "", Views!A87)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A89), "", Views!A89)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>IF(ISBLANK(Views!A101), "", Views!A101)</f>
+        <f>IF(ISBLANK(Views!A103), "", Views!A103)</f>
         <v/>
       </c>
       <c r="B95" t="str">
@@ -5751,13 +6437,13 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <f>IF(ISBLANK(Views!A88), "", Views!A88)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A90), "", Views!A90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>IF(ISBLANK(Views!A102), "", Views!A102)</f>
+        <f>IF(ISBLANK(Views!A104), "", Views!A104)</f>
         <v/>
       </c>
       <c r="B96" t="str">
@@ -5765,13 +6451,13 @@
         <v/>
       </c>
       <c r="C96" t="str">
-        <f>IF(ISBLANK(Views!A89), "", Views!A89)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A91), "", Views!A91)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f>IF(ISBLANK(Views!A103), "", Views!A103)</f>
+        <f>IF(ISBLANK(Views!A105), "", Views!A105)</f>
         <v/>
       </c>
       <c r="B97" t="str">
@@ -5779,13 +6465,13 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <f>IF(ISBLANK(Views!A90), "", Views!A90)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A92), "", Views!A92)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f>IF(ISBLANK(Views!A104), "", Views!A104)</f>
+        <f>IF(ISBLANK(Views!A106), "", Views!A106)</f>
         <v/>
       </c>
       <c r="B98" t="str">
@@ -5793,13 +6479,13 @@
         <v/>
       </c>
       <c r="C98" t="str">
-        <f>IF(ISBLANK(Views!A91), "", Views!A91)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A93), "", Views!A93)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f>IF(ISBLANK(Views!A105), "", Views!A105)</f>
+        <f>IF(ISBLANK(Views!A107), "", Views!A107)</f>
         <v/>
       </c>
       <c r="B99" t="str">
@@ -5807,13 +6493,13 @@
         <v/>
       </c>
       <c r="C99" t="str">
-        <f>IF(ISBLANK(Views!A92), "", Views!A92)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A94), "", Views!A94)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f>IF(ISBLANK(Views!A106), "", Views!A106)</f>
+        <f>IF(ISBLANK(Views!A108), "", Views!A108)</f>
         <v/>
       </c>
       <c r="B100" t="str">
@@ -5821,85 +6507,85 @@
         <v/>
       </c>
       <c r="C100" t="str">
-        <f>IF(ISBLANK(Views!A93), "", Views!A93)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A95), "", Views!A95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C101" t="str">
-        <f>IF(ISBLANK(Views!A94), "", Views!A94)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A96), "", Views!A96)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C102" t="str">
-        <f>IF(ISBLANK(Views!A95), "", Views!A95)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A97), "", Views!A97)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C103" t="str">
-        <f>IF(ISBLANK(Views!A96), "", Views!A96)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A98), "", Views!A98)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C104" t="str">
-        <f>IF(ISBLANK(Views!A97), "", Views!A97)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A99), "", Views!A99)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C105" t="str">
-        <f>IF(ISBLANK(Views!A98), "", Views!A98)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A100), "", Views!A100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C106" t="str">
-        <f>IF(ISBLANK(Views!A99), "", Views!A99)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A101), "", Views!A101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C107" t="str">
-        <f>IF(ISBLANK(Views!A100), "", Views!A100)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A102), "", Views!A102)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C108" t="str">
-        <f>IF(ISBLANK(Views!A101), "", Views!A101)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A103), "", Views!A103)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C109" t="str">
-        <f>IF(ISBLANK(Views!A102), "", Views!A102)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A104), "", Views!A104)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C110" t="str">
-        <f>IF(ISBLANK(Views!A103), "", Views!A103)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A105), "", Views!A105)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C111" t="str">
-        <f>IF(ISBLANK(Views!A104), "", Views!A104)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A106), "", Views!A106)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C112" t="str">
-        <f>IF(ISBLANK(Views!A105), "", Views!A105)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(Views!A107), "", Views!A107)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" t="str">
-        <f>IF(ISBLANK(Views!A106), "", Views!A106)</f>
+        <f>IF(ISBLANK(Views!A108), "", Views!A108)</f>
         <v/>
       </c>
     </row>
